--- a/biology/Zoologie/Eodromaeus/Eodromaeus.xlsx
+++ b/biology/Zoologie/Eodromaeus/Eodromaeus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eodromaeus murphi
 Eodromaeus (nom d’origine grecque signifiant « coureur de l'aube ») est un genre éteint de dinosaures théropodes basaux du Trias supérieur  d'Argentine, il y a environ 232 à 229 millions d'années.
-Ce genre ne comprend qu'une espèce, Eodromaeus murphi, décrite par Ricardo Néstor Martínez (d) et son équipe en 2011[1].
+Ce genre ne comprend qu'une espèce, Eodromaeus murphi, décrite par Ricardo Néstor Martínez (d) et son équipe en 2011.
 Ce théropode est considéré comme l'un des premiers représentants de ce groupe, voire comme un proche parent de l'ancêtre commun à tous les dinosaures.
 Ses fossiles ont été découverts en 1996, mais il n'a été décrit qu'en 2011, car il a d'abord été considéré comme un Eoraptor, un autre dinosaure très primitif.
 </t>
@@ -515,7 +527,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eodromaeus a été nommé par Ricardo N. Martinez, Paul C. Sereno et leurs collègues en 2011. L'espèce type et l'unique est Eodromaeus murphi.
 Le nom générique Eodromaeus est dérivé des mots grecs « Eos » (signifiant « aube » ou « précoce ») et « Dromaeus » (signifiant « coureur »).
@@ -549,7 +563,9 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fossiles d’Eodromaeus ont été découverts en 1996 par le paléontologue argentin Ricardo Martinez et par ses collaborateurs en Argentine dans le parc national d'Ischigualasto. Au début, ils ont affecté ces fossiles à une nouvelle espèce d’Eoraptor, un autre dinosaure contemporain de la région. Mais par la suite, une analyse plus détaillée des fossiles a montré des nombreuses caractéristiques qui le différenciaient d’Eoraptor, laissant supposer qu'il s'agit d'un dinosaure inconnu.
 L'holotype s'appelle PVSJ 560 et il s'agit d'un squelette articulé presque complet, complété par les fossiles référencés PVSJ 534, PVSJ 561, PVSJ 562 et PVSJ 877, tous découverts dans la formation d'Ischigualasto, affleurant dans le parc national d'Ischigualasto.
@@ -582,10 +598,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Eodromaeus est un dinosaure théropode bipède et carnivore de taille relativement petite.
-D'après les fossiles, il mesurait certainement 1,50 mètre[2] pour un poids relativement léger d'environ 5 kg.
+D'après les fossiles, il mesurait certainement 1,50 mètre pour un poids relativement léger d'environ 5 kg.
 Son corps était long et mince.
 On ignore à quelle vitesse exacte il pourrait courir, mais d'après ces longs membres postérieurs proportionnellement à son corps, il devait être plutôt rapide. Il est possible qu'il courait jusqu'à 30 kilomètres par heure.
 Le crâne est plutôt bas et léger, soutenu par un long cou. Les dents sont recourbées et compressées latéralement, comportant des serrations. Les orbites sont particulièrement grandes, laissant supposer que Eodrameus avait une bonne vue.
@@ -621,7 +639,9 @@
           <t>Mode et milieu de vie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après sa dentition, il devait être carnivore et il se nourrissait surement de petits vertébrés comme les premiers mammifères ou de lézards.
 Il pouvait peut-être lui-même la proie de Herrerasaurus ou de Saurosuchus, en raison de leur plus grande taille et dentition.
@@ -654,12 +674,14 @@
           <t>Phylogénie et évolution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Eodromaeus est situé à la base des dinosaures théropodes. Cette classification est fondée sur un certain nombre de caractères dérivés partagés des théropodes. Il semblerait que les Herrerasauridae présentent moins de caractères dérivés qu'Eodromaeus, ils seraient donc plus basaux que lui. Eodromaeus dispose également de plusieurs autapomorphies. Les auteurs de l'article soutiennent qu'Eoraptor serait quant à lui plus proche des sauropodomorphes basaux comme Panphagia (ce groupe comprend aussi les sauropodes comme Diplodocus), grâce notamment à ses narines élargies, que des théropodes.
 Toutefois, cela a été remis en question par des chercheurs, qui placent toujours Eoraptor parmi les théropodes.
 La découverte d'Eodromaeus semble confirmer le caractère ancestral de la bipédie pour les saurischiens, caractérisée par un tibia plus long que le fémur.
-Cladogramme d'après Martinez et al., 2011[1] :
+Cladogramme d'après Martinez et al., 2011 :
 </t>
         </is>
       </c>
@@ -688,7 +710,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Ricardo N. Martinez, Paul C. Sereno, Oscar A. Alcober, Carina E. Colombi, Paul R. Renne, Isabel P. Montañez et Brian S. Currie, « A basal dinosaur from the dawn of the dinosaur era in southwestern Pangaea », Science, Amérique septentrionale, AAAS, vol. 331, no 6014,‎ 14 janvier 2011, p. 206-210 (ISSN 0036-8075 et 1095-9203, OCLC 1644869, PMID 21233386, DOI 10.1126/SCIENCE.1198467, lire en ligne)</t>
         </is>
